--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H2">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I2">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J2">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.835299</v>
+        <v>0.5023026666666667</v>
       </c>
       <c r="N2">
-        <v>2.505897</v>
+        <v>1.506908</v>
       </c>
       <c r="O2">
-        <v>0.3696458157795983</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="P2">
-        <v>0.3696458157795982</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="Q2">
-        <v>0.039363465375</v>
+        <v>0.09477630892311112</v>
       </c>
       <c r="R2">
-        <v>0.354271188375</v>
+        <v>0.852986780308</v>
       </c>
       <c r="S2">
-        <v>0.03534150947491623</v>
+        <v>0.2641979699535746</v>
       </c>
       <c r="T2">
-        <v>0.03534150947491622</v>
+        <v>0.2641979699535746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.047125</v>
+        <v>0.1886836666666667</v>
       </c>
       <c r="H3">
-        <v>0.141375</v>
+        <v>0.566051</v>
       </c>
       <c r="I3">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="J3">
-        <v>0.09560911544576672</v>
+        <v>0.310700528143309</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.05077966666666667</v>
+        <v>0.08841233333333333</v>
       </c>
       <c r="N3">
-        <v>0.152339</v>
+        <v>0.265237</v>
       </c>
       <c r="O3">
-        <v>0.02247158360062214</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="P3">
-        <v>0.02247158360062214</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="Q3">
-        <v>0.002392991791666667</v>
+        <v>0.01668196323188889</v>
       </c>
       <c r="R3">
-        <v>0.021536926125</v>
+        <v>0.150137669087</v>
       </c>
       <c r="S3">
-        <v>0.002148488230721081</v>
+        <v>0.04650255818973439</v>
       </c>
       <c r="T3">
-        <v>0.00214848823072108</v>
+        <v>0.04650255818973438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.047125</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H4">
-        <v>0.141375</v>
+        <v>0.155924</v>
       </c>
       <c r="I4">
-        <v>0.09560911544576672</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J4">
-        <v>0.09560911544576672</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,33 +685,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7235183333333334</v>
+        <v>0.5023026666666667</v>
       </c>
       <c r="N4">
-        <v>2.170555</v>
+        <v>1.506908</v>
       </c>
       <c r="O4">
-        <v>0.3201793903219031</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="P4">
-        <v>0.3201793903219031</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="Q4">
-        <v>0.03409580145833334</v>
+        <v>0.02610701366577778</v>
       </c>
       <c r="R4">
-        <v>0.3068622131250001</v>
+        <v>0.234963122992</v>
       </c>
       <c r="S4">
-        <v>0.03061206829264203</v>
+        <v>0.07277578215927748</v>
       </c>
       <c r="T4">
-        <v>0.03061206829264203</v>
+        <v>0.07277578215927746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.047125</v>
+        <v>0.05197466666666667</v>
       </c>
       <c r="H5">
-        <v>0.141375</v>
+        <v>0.155924</v>
       </c>
       <c r="I5">
-        <v>0.09560911544576672</v>
+        <v>0.08558534328217302</v>
       </c>
       <c r="J5">
-        <v>0.09560911544576672</v>
+        <v>0.085585343282173</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.650131</v>
+        <v>0.08841233333333333</v>
       </c>
       <c r="N5">
-        <v>1.950393</v>
+        <v>0.265237</v>
       </c>
       <c r="O5">
-        <v>0.2877032102978765</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="P5">
-        <v>0.2877032102978765</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="Q5">
-        <v>0.030637423375</v>
+        <v>0.004595201554222222</v>
       </c>
       <c r="R5">
-        <v>0.275736810375</v>
+        <v>0.041356813988</v>
       </c>
       <c r="S5">
-        <v>0.02750704944748738</v>
+        <v>0.01280956112289554</v>
       </c>
       <c r="T5">
-        <v>0.02750704944748738</v>
+        <v>0.01280956112289554</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05197466666666667</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H6">
-        <v>0.155924</v>
+        <v>0.431611</v>
       </c>
       <c r="I6">
-        <v>0.1054483162989619</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J6">
-        <v>0.1054483162989618</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.835299</v>
+        <v>0.5023026666666667</v>
       </c>
       <c r="N6">
-        <v>2.505897</v>
+        <v>1.506908</v>
       </c>
       <c r="O6">
-        <v>0.3696458157795983</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="P6">
-        <v>0.3696458157795982</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="Q6">
-        <v>0.043414387092</v>
+        <v>0.07226645208755557</v>
       </c>
       <c r="R6">
-        <v>0.390729483828</v>
+        <v>0.6503980687880001</v>
       </c>
       <c r="S6">
-        <v>0.03897852890091486</v>
+        <v>0.2014496043812877</v>
       </c>
       <c r="T6">
-        <v>0.03897852890091486</v>
+        <v>0.2014496043812877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05197466666666667</v>
+        <v>0.1438703333333334</v>
       </c>
       <c r="H7">
-        <v>0.155924</v>
+        <v>0.431611</v>
       </c>
       <c r="I7">
-        <v>0.1054483162989619</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="J7">
-        <v>0.1054483162989618</v>
+        <v>0.236907567785344</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05077966666666667</v>
+        <v>0.08841233333333333</v>
       </c>
       <c r="N7">
-        <v>0.152339</v>
+        <v>0.265237</v>
       </c>
       <c r="O7">
-        <v>0.02247158360062214</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="P7">
-        <v>0.02247158360062214</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="Q7">
-        <v>0.002639256248444445</v>
+        <v>0.01271991186744444</v>
       </c>
       <c r="R7">
-        <v>0.023753306236</v>
+        <v>0.114479206807</v>
       </c>
       <c r="S7">
-        <v>0.002369590655256968</v>
+        <v>0.03545796340405626</v>
       </c>
       <c r="T7">
-        <v>0.002369590655256967</v>
+        <v>0.03545796340405626</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05197466666666667</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H8">
-        <v>0.155924</v>
+        <v>0.128242</v>
       </c>
       <c r="I8">
-        <v>0.1054483162989619</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J8">
-        <v>0.1054483162989618</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +933,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.7235183333333334</v>
+        <v>0.5023026666666667</v>
       </c>
       <c r="N8">
-        <v>2.170555</v>
+        <v>1.506908</v>
       </c>
       <c r="O8">
-        <v>0.3201793903219031</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="P8">
-        <v>0.3201793903219031</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="Q8">
-        <v>0.03760462420222223</v>
+        <v>0.02147209952622222</v>
       </c>
       <c r="R8">
-        <v>0.33844161782</v>
+        <v>0.193248895736</v>
       </c>
       <c r="S8">
-        <v>0.0337623776230728</v>
+        <v>0.05985551842994061</v>
       </c>
       <c r="T8">
-        <v>0.0337623776230728</v>
+        <v>0.0598555184299406</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,25 +968,25 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05197466666666667</v>
+        <v>0.04274733333333333</v>
       </c>
       <c r="H9">
-        <v>0.155924</v>
+        <v>0.128242</v>
       </c>
       <c r="I9">
-        <v>0.1054483162989619</v>
+        <v>0.07039093143577917</v>
       </c>
       <c r="J9">
-        <v>0.1054483162989618</v>
+        <v>0.07039093143577915</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,33 +995,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.650131</v>
+        <v>0.08841233333333333</v>
       </c>
       <c r="N9">
-        <v>1.950393</v>
+        <v>0.265237</v>
       </c>
       <c r="O9">
-        <v>0.2877032102978765</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="P9">
-        <v>0.2877032102978765</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="Q9">
-        <v>0.03379034201466667</v>
+        <v>0.003779391483777777</v>
       </c>
       <c r="R9">
-        <v>0.304113078132</v>
+        <v>0.034014523354</v>
       </c>
       <c r="S9">
-        <v>0.03033781911971722</v>
+        <v>0.01053541300583855</v>
       </c>
       <c r="T9">
-        <v>0.03033781911971722</v>
+        <v>0.01053541300583855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1098193333333333</v>
+        <v>0.1497176666666667</v>
       </c>
       <c r="H10">
-        <v>0.329458</v>
+        <v>0.449153</v>
       </c>
       <c r="I10">
-        <v>0.2228059271903194</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J10">
-        <v>0.2228059271903194</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.835299</v>
+        <v>0.5023026666666667</v>
       </c>
       <c r="N10">
-        <v>2.505897</v>
+        <v>1.506908</v>
       </c>
       <c r="O10">
-        <v>0.3696458157795983</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="P10">
-        <v>0.3696458157795982</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="Q10">
-        <v>0.091731979314</v>
+        <v>0.07520358321377778</v>
       </c>
       <c r="R10">
-        <v>0.825587813826</v>
+        <v>0.6768322489240001</v>
       </c>
       <c r="S10">
-        <v>0.08235927871679541</v>
+        <v>0.2096371365805517</v>
       </c>
       <c r="T10">
-        <v>0.08235927871679539</v>
+        <v>0.2096371365805517</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1098193333333333</v>
+        <v>0.1497176666666667</v>
       </c>
       <c r="H11">
-        <v>0.329458</v>
+        <v>0.449153</v>
       </c>
       <c r="I11">
-        <v>0.2228059271903194</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="J11">
-        <v>0.2228059271903194</v>
+        <v>0.2465362207948606</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.05077966666666667</v>
+        <v>0.08841233333333333</v>
       </c>
       <c r="N11">
-        <v>0.152339</v>
+        <v>0.265237</v>
       </c>
       <c r="O11">
-        <v>0.02247158360062214</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="P11">
-        <v>0.02247158360062214</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="Q11">
-        <v>0.005576589140222222</v>
+        <v>0.01323688825122222</v>
       </c>
       <c r="R11">
-        <v>0.050189302262</v>
+        <v>0.119131994261</v>
       </c>
       <c r="S11">
-        <v>0.005006802019571393</v>
+        <v>0.0368990842143089</v>
       </c>
       <c r="T11">
-        <v>0.005006802019571393</v>
+        <v>0.0368990842143089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,25 +1154,25 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1098193333333333</v>
+        <v>0.030291</v>
       </c>
       <c r="H12">
-        <v>0.329458</v>
+        <v>0.090873</v>
       </c>
       <c r="I12">
-        <v>0.2228059271903194</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J12">
-        <v>0.2228059271903194</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,33 +1181,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.7235183333333334</v>
+        <v>0.5023026666666667</v>
       </c>
       <c r="N12">
-        <v>2.170555</v>
+        <v>1.506908</v>
       </c>
       <c r="O12">
-        <v>0.3201793903219031</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="P12">
-        <v>0.3201793903219031</v>
+        <v>0.8503299673559443</v>
       </c>
       <c r="Q12">
-        <v>0.07945630102111111</v>
+        <v>0.015215250076</v>
       </c>
       <c r="R12">
-        <v>0.71510670919</v>
+        <v>0.136937250684</v>
       </c>
       <c r="S12">
-        <v>0.07133786592790281</v>
+        <v>0.04241395585131231</v>
       </c>
       <c r="T12">
-        <v>0.07133786592790281</v>
+        <v>0.04241395585131231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1098193333333333</v>
+        <v>0.030291</v>
       </c>
       <c r="H13">
-        <v>0.329458</v>
+        <v>0.090873</v>
       </c>
       <c r="I13">
-        <v>0.2228059271903194</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="J13">
-        <v>0.2228059271903194</v>
+        <v>0.04987940855853433</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,772 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.650131</v>
+        <v>0.08841233333333333</v>
       </c>
       <c r="N13">
-        <v>1.950393</v>
+        <v>0.265237</v>
       </c>
       <c r="O13">
-        <v>0.2877032102978765</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="P13">
-        <v>0.2877032102978765</v>
+        <v>0.1496700326440557</v>
       </c>
       <c r="Q13">
-        <v>0.07139695299933332</v>
+        <v>0.002678097989</v>
       </c>
       <c r="R13">
-        <v>0.6425725769939999</v>
+        <v>0.024102881901</v>
       </c>
       <c r="S13">
-        <v>0.06410198052604985</v>
+        <v>0.007465452707222022</v>
       </c>
       <c r="T13">
-        <v>0.06410198052604985</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.10757</v>
-      </c>
-      <c r="H14">
-        <v>0.32271</v>
-      </c>
-      <c r="I14">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="J14">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.835299</v>
-      </c>
-      <c r="N14">
-        <v>2.505897</v>
-      </c>
-      <c r="O14">
-        <v>0.3696458157795983</v>
-      </c>
-      <c r="P14">
-        <v>0.3696458157795982</v>
-      </c>
-      <c r="Q14">
-        <v>0.08985311343000001</v>
-      </c>
-      <c r="R14">
-        <v>0.80867802087</v>
-      </c>
-      <c r="S14">
-        <v>0.08067238565977164</v>
-      </c>
-      <c r="T14">
-        <v>0.08067238565977163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.10757</v>
-      </c>
-      <c r="H15">
-        <v>0.32271</v>
-      </c>
-      <c r="I15">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="J15">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.05077966666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.152339</v>
-      </c>
-      <c r="O15">
-        <v>0.02247158360062214</v>
-      </c>
-      <c r="P15">
-        <v>0.02247158360062214</v>
-      </c>
-      <c r="Q15">
-        <v>0.005462368743333334</v>
-      </c>
-      <c r="R15">
-        <v>0.04916131869</v>
-      </c>
-      <c r="S15">
-        <v>0.004904252073817859</v>
-      </c>
-      <c r="T15">
-        <v>0.004904252073817859</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.10757</v>
-      </c>
-      <c r="H16">
-        <v>0.32271</v>
-      </c>
-      <c r="I16">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="J16">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.7235183333333334</v>
-      </c>
-      <c r="N16">
-        <v>2.170555</v>
-      </c>
-      <c r="O16">
-        <v>0.3201793903219031</v>
-      </c>
-      <c r="P16">
-        <v>0.3201793903219031</v>
-      </c>
-      <c r="Q16">
-        <v>0.07782886711666667</v>
-      </c>
-      <c r="R16">
-        <v>0.7004598040500001</v>
-      </c>
-      <c r="S16">
-        <v>0.06987671482736348</v>
-      </c>
-      <c r="T16">
-        <v>0.06987671482736348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.10757</v>
-      </c>
-      <c r="H17">
-        <v>0.32271</v>
-      </c>
-      <c r="I17">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="J17">
-        <v>0.2182423882971061</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.650131</v>
-      </c>
-      <c r="N17">
-        <v>1.950393</v>
-      </c>
-      <c r="O17">
-        <v>0.2877032102978765</v>
-      </c>
-      <c r="P17">
-        <v>0.2877032102978765</v>
-      </c>
-      <c r="Q17">
-        <v>0.06993459167</v>
-      </c>
-      <c r="R17">
-        <v>0.62941132503</v>
-      </c>
-      <c r="S17">
-        <v>0.06278903573615316</v>
-      </c>
-      <c r="T17">
-        <v>0.06278903573615316</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1497176666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.449153</v>
-      </c>
-      <c r="I18">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="J18">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.835299</v>
-      </c>
-      <c r="N18">
-        <v>2.505897</v>
-      </c>
-      <c r="O18">
-        <v>0.3696458157795983</v>
-      </c>
-      <c r="P18">
-        <v>0.3696458157795982</v>
-      </c>
-      <c r="Q18">
-        <v>0.125059017249</v>
-      </c>
-      <c r="R18">
-        <v>1.125531155241</v>
-      </c>
-      <c r="S18">
-        <v>0.1122811317785114</v>
-      </c>
-      <c r="T18">
-        <v>0.1122811317785114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1497176666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.449153</v>
-      </c>
-      <c r="I19">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="J19">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05077966666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.152339</v>
-      </c>
-      <c r="O19">
-        <v>0.02247158360062214</v>
-      </c>
-      <c r="P19">
-        <v>0.02247158360062214</v>
-      </c>
-      <c r="Q19">
-        <v>0.007602613207444445</v>
-      </c>
-      <c r="R19">
-        <v>0.068423518867</v>
-      </c>
-      <c r="S19">
-        <v>0.006825817395530083</v>
-      </c>
-      <c r="T19">
-        <v>0.006825817395530082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1497176666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.449153</v>
-      </c>
-      <c r="I20">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="J20">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.7235183333333334</v>
-      </c>
-      <c r="N20">
-        <v>2.170555</v>
-      </c>
-      <c r="O20">
-        <v>0.3201793903219031</v>
-      </c>
-      <c r="P20">
-        <v>0.3201793903219031</v>
-      </c>
-      <c r="Q20">
-        <v>0.1083234766572222</v>
-      </c>
-      <c r="R20">
-        <v>0.9749112899150001</v>
-      </c>
-      <c r="S20">
-        <v>0.0972555424215388</v>
-      </c>
-      <c r="T20">
-        <v>0.0972555424215388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1497176666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.449153</v>
-      </c>
-      <c r="I21">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="J21">
-        <v>0.3037532875671969</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.650131</v>
-      </c>
-      <c r="N21">
-        <v>1.950393</v>
-      </c>
-      <c r="O21">
-        <v>0.2877032102978765</v>
-      </c>
-      <c r="P21">
-        <v>0.2877032102978765</v>
-      </c>
-      <c r="Q21">
-        <v>0.09733609634766667</v>
-      </c>
-      <c r="R21">
-        <v>0.876024867129</v>
-      </c>
-      <c r="S21">
-        <v>0.08739079597161661</v>
-      </c>
-      <c r="T21">
-        <v>0.08739079597161661</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.02668566666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.080057</v>
-      </c>
-      <c r="I22">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="J22">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.835299</v>
-      </c>
-      <c r="N22">
-        <v>2.505897</v>
-      </c>
-      <c r="O22">
-        <v>0.3696458157795983</v>
-      </c>
-      <c r="P22">
-        <v>0.3696458157795982</v>
-      </c>
-      <c r="Q22">
-        <v>0.022290510681</v>
-      </c>
-      <c r="R22">
-        <v>0.200614596129</v>
-      </c>
-      <c r="S22">
-        <v>0.02001298124868872</v>
-      </c>
-      <c r="T22">
-        <v>0.02001298124868872</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.02668566666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.080057</v>
-      </c>
-      <c r="I23">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="J23">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.05077966666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.152339</v>
-      </c>
-      <c r="O23">
-        <v>0.02247158360062214</v>
-      </c>
-      <c r="P23">
-        <v>0.02247158360062214</v>
-      </c>
-      <c r="Q23">
-        <v>0.001355089258111111</v>
-      </c>
-      <c r="R23">
-        <v>0.012195803323</v>
-      </c>
-      <c r="S23">
-        <v>0.001216633225724757</v>
-      </c>
-      <c r="T23">
-        <v>0.001216633225724757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.02668566666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.080057</v>
-      </c>
-      <c r="I24">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="J24">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.7235183333333334</v>
-      </c>
-      <c r="N24">
-        <v>2.170555</v>
-      </c>
-      <c r="O24">
-        <v>0.3201793903219031</v>
-      </c>
-      <c r="P24">
-        <v>0.3201793903219031</v>
-      </c>
-      <c r="Q24">
-        <v>0.01930756907055556</v>
-      </c>
-      <c r="R24">
-        <v>0.173768121635</v>
-      </c>
-      <c r="S24">
-        <v>0.01733482122938316</v>
-      </c>
-      <c r="T24">
-        <v>0.01733482122938316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.02668566666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.080057</v>
-      </c>
-      <c r="I25">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="J25">
-        <v>0.05414096520064896</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.650131</v>
-      </c>
-      <c r="N25">
-        <v>1.950393</v>
-      </c>
-      <c r="O25">
-        <v>0.2877032102978765</v>
-      </c>
-      <c r="P25">
-        <v>0.2877032102978765</v>
-      </c>
-      <c r="Q25">
-        <v>0.01734917915566667</v>
-      </c>
-      <c r="R25">
-        <v>0.156142612401</v>
-      </c>
-      <c r="S25">
-        <v>0.01557652949685232</v>
-      </c>
-      <c r="T25">
-        <v>0.01557652949685232</v>
+        <v>0.007465452707222022</v>
       </c>
     </row>
   </sheetData>
